--- a/EncuestaSatisfaccion/EncuestaSatisfaccion/Archivos/Reporte/ReporteRespuestas.xlsx
+++ b/EncuestaSatisfaccion/EncuestaSatisfaccion/Archivos/Reporte/ReporteRespuestas.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -89,7 +89,7 @@
     <t>¿Tienes algún comentario o sugerencia adicional que nos pueda ayudar a mejorar el proceso de reclutamiento?</t>
   </si>
   <si>
-    <t>Uriel casta oli</t>
+    <t>Uriel Castaneda Olivas</t>
   </si>
   <si>
     <t>Sí</t>
@@ -98,82 +98,97 @@
     <t>Programador</t>
   </si>
   <si>
+    <t>20/04/2021</t>
+  </si>
+  <si>
+    <t>Candidato finalista / seleccionado</t>
+  </si>
+  <si>
+    <t>Valeria Calderón</t>
+  </si>
+  <si>
+    <t>OCC</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>más de 10 días</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>No aplica</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>esto es una prueba</t>
+  </si>
+  <si>
+    <t>Consuelo Monrroy Piña</t>
+  </si>
+  <si>
+    <t>Gerente</t>
+  </si>
+  <si>
     <t>Candidato no seleccionado</t>
   </si>
   <si>
-    <t>Karla Ramirez</t>
+    <t>Mario Sumano</t>
+  </si>
+  <si>
+    <t>Bolsa de trabajo</t>
+  </si>
+  <si>
+    <t>4 a 10 días</t>
+  </si>
+  <si>
+    <t>no se</t>
+  </si>
+  <si>
+    <t>Maria mmmmm mmmmm</t>
+  </si>
+  <si>
+    <t>Capital Humano de Hospital</t>
+  </si>
+  <si>
+    <t>1 a 3 días</t>
+  </si>
+  <si>
+    <t>ffdfghfjghjhjh</t>
+  </si>
+  <si>
+    <t>clementina perez granado</t>
+  </si>
+  <si>
+    <t>23/04/2021</t>
   </si>
   <si>
     <t>Recomendación de colaborador interno</t>
   </si>
   <si>
-    <t>Tal vez</t>
-  </si>
-  <si>
-    <t>1 a 3 días</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Si, pero con dudas</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Nada satisfecho</t>
-  </si>
-  <si>
-    <t>eqwe</t>
-  </si>
-  <si>
-    <t>owen castaneda maldonado</t>
-  </si>
-  <si>
-    <t>gerente</t>
-  </si>
-  <si>
-    <t>Andrea Tinoco</t>
-  </si>
-  <si>
-    <t>OCC</t>
-  </si>
-  <si>
-    <t>4 a 10 días</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>No aplica</t>
-  </si>
-  <si>
-    <t>xzdfsdf</t>
-  </si>
-  <si>
-    <t>Paulina Mendoza</t>
+    <t xml:space="preserve">dfafdadfasdf  ajdfakldfasklfjaskjfjkaf</t>
+  </si>
+  <si>
+    <t>Gerente2</t>
   </si>
   <si>
     <t>Linkedin</t>
   </si>
   <si>
-    <t>qweqwe</t>
-  </si>
-  <si>
-    <t>Sí, pero con dudas</t>
-  </si>
-  <si>
-    <t>asdasd</t>
+    <t>123455677890 1234567890 12345678901234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234467890</t>
   </si>
 </sst>
 </file>
@@ -261,27 +276,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AA6"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.1596243722098" customWidth="1"/>
+    <col min="3" max="3" width="24.7866712297712" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="12.9989122663225" customWidth="1"/>
-    <col min="6" max="6" width="12.8945595877511" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="25.0178833007813" customWidth="1"/>
-    <col min="9" max="9" width="16.5499725341797" customWidth="1"/>
+    <col min="6" max="6" width="11.8295484270368" customWidth="1"/>
+    <col min="7" max="7" width="11.8295484270368" customWidth="1"/>
+    <col min="8" max="8" width="30.9803096226283" customWidth="1"/>
+    <col min="9" max="9" width="25.8619123186384" customWidth="1"/>
     <col min="10" max="10" width="36.2654636928013" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.6970160348075" customWidth="1"/>
+    <col min="12" max="12" width="14.3790283203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -349,24 +361,24 @@
       <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="2"/>
+      <c r="W1" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="X1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AA1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="4"/>
       <c r="B2" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>25</v>
@@ -377,62 +389,65 @@
       <c r="E2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="0">
-        <v>44303.8019851389</v>
+      <c r="F2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="P2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="U2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="W2" s="0" t="s">
         <v>38</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Z2" s="0" t="s">
         <v>39</v>
@@ -442,7 +457,7 @@
     <row r="3">
       <c r="A3" s="4"/>
       <c r="B3" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>40</v>
@@ -453,65 +468,68 @@
       <c r="E3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="0">
-        <v>44303.8459106481</v>
+      <c r="F3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z3" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="S3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="V3" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="W3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="X3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="0" t="s">
-        <v>48</v>
       </c>
       <c r="AA3" s="4"/>
     </row>
@@ -521,7 +539,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>26</v>
@@ -529,75 +547,78 @@
       <c r="E4" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="0">
-        <v>44303.8468618056</v>
+      <c r="F4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="M4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z4" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="S4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="T4" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="U4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="V4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="W4" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="X4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z4" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="AA4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="4"/>
       <c r="B5" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>26</v>
@@ -605,56 +626,59 @@
       <c r="E5" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="0">
-        <v>44303.8486039699</v>
+      <c r="F5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>52</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>34</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="V5" s="0" t="s">
         <v>37</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="X5" s="0" t="s">
         <v>34</v>
@@ -663,37 +687,116 @@
         <v>26</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
+      <c r="B6" s="0">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="X6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z6" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
     </row>
   </sheetData>
   <headerFooter/>
